--- a/Tools/Flatbuffer/Excel/UnitConfig.xlsx
+++ b/Tools/Flatbuffer/Excel/UnitConfig.xlsx
@@ -56,31 +56,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +462,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -480,7 +480,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -500,22 +500,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
